--- a/biology/Botanique/Gomphidiacée/Gomphidiacée.xlsx
+++ b/biology/Botanique/Gomphidiacée/Gomphidiacée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gomphidiac%C3%A9e</t>
+          <t>Gomphidiacée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gomphidiaceae sont une famille de champignons basidiomycètes de l'ordre des Boletales.
-Lamellés, mais séparables de la chair du chapeau. Lamelles espacées et larges[1].
+Lamellés, mais séparables de la chair du chapeau. Lamelles espacées et larges.
 Hyphes sans boucles. Sporée très sombre, presque noire.
 Port clitocybioïde à hygrophoroïde.
 Voile partiel glutineux et chapeau souvent lubrifié à cireux.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gomphidiac%C3%A9e</t>
+          <t>Gomphidiacée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Phylogramme des Gomphidiaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycetidae
@@ -550,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gomphidiac%C3%A9e</t>
+          <t>Gomphidiacée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,9 +582,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[2] (2007), cette famille est constituée de cinq genres :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi (2007), cette famille est constituée de cinq genres :
 Brauniellula
 Chroogomphus (Singer) O.K. Mill. 1964
 Cystogomphus Singer 1942
